--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Differential_Fairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Differential_Fairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,32 +458,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.94727666882505</v>
+        <v>1.762198996537878</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002099515035784223</v>
+        <v>3.366914547278885e-50</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.890903699068342</v>
+        <v>1.154290707353898</v>
       </c>
       <c r="C3" t="n">
-        <v>9.602180195937072e-06</v>
+        <v>3.842108762308014e-11</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -494,42 +494,50 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.268910521649028</v>
+        <v>0.99500175632864</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5683265703146766</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>1.762979274692803e-58</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.150750172785213</v>
+        <v>0.7671972402092369</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3460351422656092</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>6.53410881995913e-39</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.058669531896994</v>
+        <v>0.7202297183179494</v>
       </c>
       <c r="C6" t="n">
-        <v>7.887214243709371e-07</v>
+        <v>7.01556886882151e-49</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -540,28 +548,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.874657036852324</v>
+        <v>0.6132180737672285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4882546454630839</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.007220582532272805</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8322341671713056</v>
+        <v>0.5743874045896065</v>
       </c>
       <c r="C8" t="n">
-        <v>9.666307309408374e-05</v>
+        <v>1.460230958419989e-23</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -572,14 +584,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7650628817344871</v>
+        <v>0.3728651926213462</v>
       </c>
       <c r="C9" t="n">
-        <v>2.63423255854019e-11</v>
+        <v>3.295913658803515e-08</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -590,430 +602,250 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6252284846838905</v>
+        <v>0.2930407083899547</v>
       </c>
       <c r="C10" t="n">
-        <v>7.158675329627452e-08</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3269965287011039</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Standart Deviation of Long Tail Items</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5381539326905773</v>
+        <v>0.1586544970854311</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1289947028539044</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>0.04652609632349379</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5254268810815466</v>
+        <v>0.1434342662595156</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7015680988743507</v>
+        <v>0.3267460315054012</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kurtosis of Long Tail Items</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4951763483083446</v>
+        <v>0.1197903602723338</v>
       </c>
       <c r="C13" t="n">
-        <v>0.27779946394021</v>
+        <v>0.1061172780459581</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3908233210522738</v>
+        <v>0.09471668100898145</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3339623646705924</v>
+        <v>0.1164213970455174</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Skewness of Rating</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3879281026273416</v>
+        <v>0.08290683281992946</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3696059976022988</v>
+        <v>0.327611069331106</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.37570061358825</v>
+        <v>0.04061826898306355</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3850782235031813</v>
+        <v>0.598731371534116</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3466637028559426</v>
+        <v>0.03836405975727031</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2334073675798977</v>
+        <v>0.9130804282831431</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3380540552958147</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.008218061271442591</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kurtosis of Rating</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2108652371533328</v>
+        <v>-0.07955371805039263</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5676142361313229</v>
+        <v>0.3331719931086751</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.162558277354051</v>
+        <v>-0.09144432611026874</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1584366227862661</v>
+        <v>0.1797302825895737</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1537922486059468</v>
+        <v>-0.282417813290332</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06799868545522265</v>
+        <v>0.1232076864974828</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kurtosis of Popularity Bias</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1182063110711989</v>
+        <v>-0.316761258342662</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3681506399134895</v>
+        <v>0.7088303622212104</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06946884911870527</v>
+        <v>-0.3217090226153165</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4383287253521291</v>
+        <v>0.1153199922036322</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+        <v>-0.5929068930975977</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0008150920457265562</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0995676619911926</v>
+        <v>-0.6163263698036938</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8889379182490446</v>
+        <v>0.3713308544503368</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1138345582425481</v>
+        <v>-0.7705857935934018</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7125160178739558</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Shape</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.1869424033801991</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5814521900697293</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Skewness of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.2490470810176235</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.1279917006973736</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Gini Item</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.3309030950749652</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.05388861073907176</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>popularitypercentage@5</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.3700620786314327</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.04775962415346965</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>giniindex@5</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.4595361700546636</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.01387742789937007</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Skewness of Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.7611368489948307</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.07639597952399579</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Average Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-1.02024395908635</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.008696072089669505</v>
-      </c>
-      <c r="D33" t="inlineStr">
+        <v>0.001801442962324902</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>**</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-1.112192210399233</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.4459353885883165</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-1.286183257830017</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.001644285299565022</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>ndcg@5</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-1.523695049940814</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.454395271102315</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-1.526102429347163</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.0770571811835303</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-1.562127066309383</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.4545218541941355</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Differential_Fairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Differential_Fairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.768999999999995</v>
+        <v>2.451281597470695</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5.759520557909456e-31</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,14 +476,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2271111111111148</v>
+        <v>2.110553289894128</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.897299781581285e-21</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -494,14 +494,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1135555555555603</v>
+        <v>1.738135027539631</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2.919836476329292e-21</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -512,32 +512,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1135555555555553</v>
+        <v>0.9351874165398371</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.001389327876643435</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1135555555555533</v>
+        <v>0.8652743502407936</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7.921635961213591e-05</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -548,14 +548,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.113555555555553</v>
+        <v>0.7930503109157774</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>8.360956546562764e-06</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0567777777777797</v>
+        <v>0.5433729313816165</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.027705261250743e-29</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -584,14 +584,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05677777777777866</v>
+        <v>0.4502092306747716</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.0003958514711247482</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -602,32 +602,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05677777777777793</v>
+        <v>0.224223795536958</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1136345923873099</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05677777777777682</v>
+        <v>0.1792360910117231</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.0001185107911803831</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -638,286 +634,190 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.992806499463768e-15</v>
+        <v>0.1446671238289294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1036202076158566</v>
+        <v>0.3551275390189348</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>0.1013978008632531</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4458704531094044</v>
+        <v>0.3756636153352756</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.162537064506978e-15</v>
+        <v>0.07962045508784368</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06529738953974513</v>
+        <v>0.09094974800869675</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.690692279041286e-15</v>
+        <v>0.07387129398436729</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06122276453327194</v>
+        <v>0.3396114855746402</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>0.02752650687888631</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08134874284094148</v>
+        <v>0.6000459277421242</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>0.02732085266832912</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5623654494819169</v>
+        <v>0.9096116855686189</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>-0.04326932296567454</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3521640692811184</v>
+        <v>0.7176089683053604</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.992007221626409e-16</v>
+        <v>-0.6425738213377756</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6723834137606638</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0.01060269084818642</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.992007221626409e-16</v>
+        <v>-0.7008316766179419</v>
       </c>
       <c r="C20" t="n">
-        <v>0.795841141784949</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>3.776572608918009e-42</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>-1.144950321430394</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9762304443299523</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>3.257740518958521e-06</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>-1.373474427191025</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9686148090787136</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>2.045481017933695e-20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.665334536937735e-16</v>
+        <v>-1.42380052387789</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9302949606672999</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Skewness of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-2.775557561562891e-16</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.8861015660029918</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>popularitypercentage@5</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-7.771561172376096e-16</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7269811213861481</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-2.886579864025407e-15</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.63730903717762</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-3.774758283725532e-15</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.4560092068653686</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-5.773159728050814e-15</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.08670470896436527</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-6.078471059822732e-15</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.1964762718623199</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Generalized Cross Entropy</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-8.326672684688674e-15</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.0005986607099538837</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-9.214851104388799e-15</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.05455236278098327</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>6.560351347648212e-06</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Differential_Fairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Differential_Fairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,122 +458,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.451281597470695</v>
+        <v>1457284342219.585</v>
       </c>
       <c r="C2" t="n">
-        <v>5.759520557909456e-31</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1605628670029695</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.110553289894128</v>
+        <v>922546728680.5264</v>
       </c>
       <c r="C3" t="n">
-        <v>2.897299781581285e-21</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1605628670027753</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.738135027539631</v>
+        <v>922546728679.6775</v>
       </c>
       <c r="C4" t="n">
-        <v>2.919836476329292e-21</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1605628670031703</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9351874165398371</v>
+        <v>620475087674.7527</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001389327876643435</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1605628670026112</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8652743502407936</v>
+        <v>620475087674.472</v>
       </c>
       <c r="C6" t="n">
-        <v>7.921635961213591e-05</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1605628670028006</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7930503109157774</v>
+        <v>620475087673.4316</v>
       </c>
       <c r="C7" t="n">
-        <v>8.360956546562764e-06</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.160562867003503</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5433729313816165</v>
+        <v>2.566116564496797</v>
       </c>
       <c r="C8" t="n">
-        <v>1.027705261250743e-29</v>
+        <v>2.045530443794688e-18</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -584,46 +560,50 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4502092306747716</v>
+        <v>1.712427752465564</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003958514711247482</v>
+        <v>0.02867372867253161</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.224223795536958</v>
+        <v>0.974812184469654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1136345923873099</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>6.191010673640015e-05</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1792360910117231</v>
+        <v>0.9367916080167804</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001185107911803831</v>
+        <v>0.000239728653941443</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -634,166 +614,170 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1446671238289294</v>
+        <v>0.8445747145521173</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3551275390189348</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>2.666244120931638e-19</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1013978008632531</v>
+        <v>0.7100759568841553</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3756636153352756</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>4.246878303591075e-07</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07962045508784368</v>
+        <v>0.6512757884967284</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09094974800869675</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>0.03246741722368347</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07387129398436729</v>
+        <v>0.5215925312495024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3396114855746402</v>
+        <v>0.2113626178371634</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02752650687888631</v>
+        <v>0.5030438510978961</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6000459277421242</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>0.01569468828495202</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02732085266832912</v>
+        <v>0.2847021176188256</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9096116855686189</v>
+        <v>0.05984562770225168</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.04326932296567454</v>
+        <v>0.1929648251839821</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7176089683053604</v>
+        <v>0.5098068501062615</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.6425738213377756</v>
+        <v>0.1720163554333411</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01060269084818642</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.6049668987367403</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.7008316766179419</v>
+        <v>0.1610466017446854</v>
       </c>
       <c r="C20" t="n">
-        <v>3.776572608918009e-42</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5731862527777896</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.144950321430394</v>
+        <v>-0.1031903743323588</v>
       </c>
       <c r="C21" t="n">
-        <v>3.257740518958521e-06</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4826755684422687</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.373474427191025</v>
+        <v>-1.480874146599272</v>
       </c>
       <c r="C22" t="n">
-        <v>2.045481017933695e-20</v>
+        <v>5.382004675380543e-08</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -808,16 +792,44 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.42380052387789</v>
+        <v>-2.122262854714372</v>
       </c>
       <c r="C23" t="n">
-        <v>6.560351347648212e-06</v>
+        <v>1.112199029564394e-08</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Age</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-3000306158573.705</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1605628670029937</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Gender</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-3000306158573.819</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1605628670029779</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Differential_Fairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Differential_Fairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1457284342219.585</v>
+        <v>1277276762387.394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1605628670029695</v>
+        <v>0.1472480370121947</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>922546728680.5264</v>
+        <v>774296821588.1216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1605628670027753</v>
+        <v>0.1472480370118778</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922546728679.6775</v>
+        <v>774296821586.8955</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1605628670031703</v>
+        <v>0.1472480370125315</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>620475087674.7527</v>
+        <v>519203840561.9497</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1605628670026112</v>
+        <v>0.1472480370117882</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>620475087674.472</v>
+        <v>519203840561.6669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1605628670028006</v>
+        <v>0.1472480370120088</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>620475087673.4316</v>
+        <v>519203840560.6307</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160562867003503</v>
+        <v>0.1472480370128169</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.566116564496797</v>
+        <v>1.823896635317745</v>
       </c>
       <c r="C8" t="n">
-        <v>2.045530443794688e-18</v>
+        <v>3.688342043179228e-18</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.712427752465564</v>
+        <v>1.662072872179356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02867372867253161</v>
+        <v>0.0351117861632819</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -578,14 +578,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.974812184469654</v>
+        <v>0.8308587974196802</v>
       </c>
       <c r="C10" t="n">
-        <v>6.191010673640015e-05</v>
+        <v>1.690343428462992e-18</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -596,14 +596,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9367916080167804</v>
+        <v>0.7927751386150416</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000239728653941443</v>
+        <v>0.0009456078341439338</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -614,128 +614,128 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8445747145521173</v>
+        <v>0.6970054173943061</v>
       </c>
       <c r="C12" t="n">
-        <v>2.666244120931638e-19</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.09546977126714658</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7100759568841553</v>
+        <v>0.6575304386237382</v>
       </c>
       <c r="C13" t="n">
-        <v>4.246878303591075e-07</v>
+        <v>0.03222936586869456</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6512757884967284</v>
+        <v>0.6550523160257464</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03246741722368347</v>
+        <v>0.001471076580770322</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5215925312495024</v>
+        <v>0.6378443289572479</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2113626178371634</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>0.03969828219816744</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5030438510978961</v>
+        <v>0.6221376183833986</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01569468828495202</v>
+        <v>7.893163950374487e-06</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2847021176188256</v>
+        <v>0.2400614597539984</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05984562770225168</v>
+        <v>0.4155288558890951</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1929648251839821</v>
+        <v>0.06032296396419645</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5098068501062615</v>
+        <v>0.6656015941502839</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1720163554333411</v>
+        <v>0.03330626971659179</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6049668987367403</v>
+        <v>0.8162447831861739</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
@@ -746,38 +746,42 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1610466017446854</v>
+        <v>-0.3520067801944605</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5731862527777896</v>
+        <v>0.1621016762528916</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1031903743323588</v>
+        <v>-0.9481683529729837</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4826755684422687</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>4.035395051810585e-05</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.480874146599272</v>
+        <v>-1.707512825895594</v>
       </c>
       <c r="C22" t="n">
-        <v>5.382004675380543e-08</v>
+        <v>1.571073621565832e-06</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -788,48 +792,30 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2.122262854714372</v>
+        <v>-2570777424535.862</v>
       </c>
       <c r="C23" t="n">
-        <v>1.112199029564394e-08</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1472480370122637</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-3000306158573.705</v>
+        <v>-2570777424535.991</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1605628670029937</v>
+        <v>0.1472480370122436</v>
       </c>
       <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-3000306158573.819</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1605628670029779</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Differential_Fairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Differential_Fairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,98 +458,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1277276762387.394</v>
+        <v>1.73111230797002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1472480370121947</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>2.51020606247441e-34</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>774296821588.1216</v>
+        <v>1.375197384932989</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1472480370118778</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>9.202499287457809e-17</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774296821586.8955</v>
+        <v>0.8187121594304838</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1472480370125315</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>0.0001240865695677564</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>519203840561.9497</v>
+        <v>0.7459315104999155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1472480370117882</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>6.504117118208687e-05</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>519203840561.6669</v>
+        <v>0.7356423075147689</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1472480370120088</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>1.333621159804966e-16</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519203840560.6307</v>
+        <v>0.6809097378386162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1472480370128169</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.007060411283167995</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.823896635317745</v>
+        <v>0.6395550774182084</v>
       </c>
       <c r="C8" t="n">
-        <v>3.688342043179228e-18</v>
+        <v>4.328184888623461e-15</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -560,262 +584,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.662072872179356</v>
+        <v>0.6349353308418486</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0351117861632819</v>
+        <v>3.582045093260126e-13</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8308587974196802</v>
+        <v>0.5564852255024979</v>
       </c>
       <c r="C10" t="n">
-        <v>1.690343428462992e-18</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.06599309746275576</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7927751386150416</v>
+        <v>0.1583646884446606</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009456078341439338</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1993399895780301</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6970054173943061</v>
+        <v>0.137027380202545</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09546977126714658</v>
+        <v>0.1030589533861864</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6575304386237382</v>
+        <v>0.06027138906840966</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03222936586869456</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.0831878025859875</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6550523160257464</v>
+        <v>0.02054763855685682</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001471076580770322</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.9653894564951172</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6378443289572479</v>
+        <v>0.00790196129886378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03969828219816744</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.9261502606482794</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6221376183833986</v>
+        <v>-0.03361818112956461</v>
       </c>
       <c r="C16" t="n">
-        <v>7.893163950374487e-06</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8559003541716881</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2400614597539984</v>
+        <v>-0.161720357767981</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4155288558890951</v>
+        <v>0.2588500903471422</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06032296396419645</v>
+        <v>-0.2011900157533175</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6656015941502839</v>
+        <v>0.2605874031349835</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03330626971659179</v>
+        <v>-0.3073327225490984</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8162447831861739</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0.04273380067027997</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.3520067801944605</v>
+        <v>-0.7862970848892317</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1621016762528916</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>3.022361989648357e-08</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.9481683529729837</v>
+        <v>-1.032486191403938</v>
       </c>
       <c r="C21" t="n">
-        <v>4.035395051810585e-05</v>
+        <v>1.820194166818125e-06</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.707512825895594</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.571073621565832e-06</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-2570777424535.862</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1472480370122637</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-2570777424535.991</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1472480370122436</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
